--- a/help/Yana/7/Excel_lab_7.xlsx
+++ b/help/Yana/7/Excel_lab_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\leti\help\Yana\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5A09156-FFE0-4D91-AD73-3E242FD07D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50A4484-95C2-49EF-8A37-B5D64DFA9004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Содержание" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5990,7 +5989,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6036,8 +6035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416FA92D-D659-4BBF-BF7A-D0F00ACB2913}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6198,8 +6197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265B0030-67F6-45C3-B701-3D3430617D17}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6238,15 +6237,15 @@
         <v>8</v>
       </c>
       <c r="B2" s="21">
-        <f t="shared" ref="B2:D6" si="0">(F2 - E2) / E2 * 100</f>
+        <f>(F2 - E2) / E2 * 100</f>
         <v>32.227891156462597</v>
       </c>
       <c r="C2" s="21">
-        <f t="shared" si="0"/>
+        <f>(G2 - F2) / F2 * 100</f>
         <v>12.202572347266887</v>
       </c>
       <c r="D2" s="21">
-        <f t="shared" si="0"/>
+        <f>(H2 - G2) / G2 * 100</f>
         <v>0.58747671586186634</v>
       </c>
       <c r="E2" s="4">
@@ -6267,15 +6266,15 @@
         <v>9</v>
       </c>
       <c r="B3" s="21">
-        <f t="shared" si="0"/>
+        <f>(F3 - E3) / E3 * 100</f>
         <v>9.7202797202797253</v>
       </c>
       <c r="C3" s="21">
-        <f t="shared" si="0"/>
+        <f>(G3 - F3) / F3 * 100</f>
         <v>10.006373486296997</v>
       </c>
       <c r="D3" s="21">
-        <f t="shared" si="0"/>
+        <f>(H3 - G3) / G3 * 100</f>
         <v>-7.5898030127462306</v>
       </c>
       <c r="E3" s="5">
@@ -6296,15 +6295,15 @@
         <v>10</v>
       </c>
       <c r="B4" s="21">
-        <f t="shared" si="0"/>
+        <f>(F4 - E4) / E4 * 100</f>
         <v>18.227571115973731</v>
       </c>
       <c r="C4" s="21">
-        <f t="shared" si="0"/>
+        <f>(G4 - F4) / F4 * 100</f>
         <v>16.972052563390719</v>
       </c>
       <c r="D4" s="21">
-        <f t="shared" si="0"/>
+        <f>(H4 - G4) / G4 * 100</f>
         <v>-9.1772151898734187</v>
       </c>
       <c r="E4" s="5">
@@ -6325,15 +6324,15 @@
         <v>11</v>
       </c>
       <c r="B5" s="21">
-        <f t="shared" si="0"/>
+        <f>(F5 - E5) / E5 * 100</f>
         <v>12.02185792349727</v>
       </c>
       <c r="C5" s="21">
-        <f t="shared" si="0"/>
+        <f>(G5 - F5) / F5 * 100</f>
         <v>23.560975609756088</v>
       </c>
       <c r="D5" s="21">
-        <f t="shared" si="0"/>
+        <f>(H5 - G5) / G5 * 100</f>
         <v>-17.25227003553098</v>
       </c>
       <c r="E5" s="5">
@@ -6354,15 +6353,15 @@
         <v>22</v>
       </c>
       <c r="B6" s="21">
-        <f t="shared" si="0"/>
+        <f>(F6 - E6) / E6 * 100</f>
         <v>17.97781771575459</v>
       </c>
       <c r="C6" s="21">
-        <f t="shared" si="0"/>
+        <f>(G6 - F6) / F6 * 100</f>
         <v>7.1997766570167858</v>
       </c>
       <c r="D6" s="21">
-        <f t="shared" si="0"/>
+        <f>(H6 - G6) / G6 * 100</f>
         <v>-8.1661307124416869</v>
       </c>
       <c r="E6" s="5">
